--- a/Loyalty_1st.xlsx
+++ b/Loyalty_1st.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Silvia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D968B5BF-92C1-4A01-900D-48496CF30CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A58E3E-E4CA-4B43-B071-3D788E96A583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29D475B2-FE7B-4A1D-A922-4602BC1C69F1}"/>
   </bookViews>
@@ -6533,14 +6533,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C124CFD-D359-4A3A-BAF2-FC15363C9CBE}">
   <dimension ref="A1:AT394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK9" sqref="AK9"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
